--- a/output_data/charts/shares-Hocking.xlsx
+++ b/output_data/charts/shares-Hocking.xlsx
@@ -16,40 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Construction</t>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Trade, transportation, and utilities</t>
+  </si>
+  <si>
+    <t>Public administration</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>Natural resources and mining</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Leisure and hospitality</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Financial activities</t>
   </si>
   <si>
     <t>Education and health services</t>
   </si>
   <si>
-    <t>Financial activities</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Leisure and hospitality</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Natural resources and mining</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>Professional and business services</t>
-  </si>
-  <si>
-    <t>Public administration</t>
-  </si>
-  <si>
-    <t>Trade, transportation, and utilities</t>
-  </si>
-  <si>
-    <t>Unclassified</t>
+    <t>Construction</t>
   </si>
   <si>
     <t>Year</t>
@@ -169,14 +169,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Construction</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="1F77B4"/>
+              <a:srgbClr val="68AFFC"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -213,19 +213,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.487970384722349</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.16178736458466</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.208983112239966</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.385185227670617</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.732510289935476</c:v>
+                  <c:v>0.06169034616749396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,14 +231,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Education and health services</c:v>
+                  <c:v>Trade, transportation, and utilities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF7F0E"/>
+              <a:srgbClr val="4233A6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -284,19 +275,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.66563847142596</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.27118643766225</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.80910794510583</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.88148147775237</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.32333921000429</c:v>
+                  <c:v>15.20666254067437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.71648690112345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.18839676964505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.73333331397318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.01998824853935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,14 +302,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Financial activities</c:v>
+                  <c:v>Public administration</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="2CA02C"/>
+              <a:srgbClr val="85E5DD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -355,19 +346,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.534238120647323</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.422187981002383</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.25764189996445</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.518518491150993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.409171101741896</c:v>
+                  <c:v>7.06354103964043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.779661019791858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.815346194106681</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.399999988124685</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.496178702566394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,14 +373,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Information</c:v>
+                  <c:v>Professional and business services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="D62728"/>
+              <a:srgbClr val="2A6866"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -426,19 +417,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.4164096593364758</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2927580998585355</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2963194436356563</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.355555605518038</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6760729002670908</c:v>
+                  <c:v>4.179518811889197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.636363633280573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.509045506417748</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.562962979807414</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.011757791515516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,14 +444,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leisure and hospitality</c:v>
+                  <c:v>Other services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="9467BD"/>
+              <a:srgbClr val="66DE78"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -497,19 +488,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18.33744600493086</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.87519260183945</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.54522773399142</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.12592590239112</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.95884774451049</c:v>
+                  <c:v>3.192473778823115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.312788905628963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.838427949976299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.622222218995526</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.601410901027719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,14 +515,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manufacturing</c:v>
+                  <c:v>Natural resources and mining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8C564B"/>
+              <a:srgbClr val="15974D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -568,19 +559,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13.88032077749182</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.72881355774608</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.83156582652451</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.94814812975417</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.47736626046843</c:v>
+                  <c:v>1.974090064250615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.802773497481801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.699937618392397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.466666664861897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.293356849423356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,14 +586,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Natural resources and mining</c:v>
+                  <c:v>Manufacturing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="E377C2"/>
+              <a:srgbClr val="B4D170"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -639,19 +630,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.974090064250615</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.802773497481801</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.699937618392397</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.466666664861897</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.293356849423356</c:v>
+                  <c:v>13.88032077749182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.72881355774608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.83156582652451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.94814812975417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.47736626046843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,14 +657,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other services</c:v>
+                  <c:v>Leisure and hospitality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7F7F7F"/>
+              <a:srgbClr val="683C00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -710,19 +701,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.192473778823115</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.312788905628963</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.838427949976299</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.622222218995526</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.601410901027719</c:v>
+                  <c:v>18.33744600493086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.87519260183945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.54522773399142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.12592590239112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.95884774451049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,14 +728,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Professional and business services</c:v>
+                  <c:v>Information</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="BCBD22"/>
+              <a:srgbClr val="CA7E54"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -781,19 +772,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.179518811889197</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.636363633280573</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.509045506417748</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.562962979807414</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.011757791515516</c:v>
+                  <c:v>0.4164096593364758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2927580998585355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2963194436356563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.355555605518038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6760729002670908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,14 +799,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Public administration</c:v>
+                  <c:v>Financial activities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="17BECF"/>
+              <a:srgbClr val="821F48"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -852,19 +843,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.06354103964043</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.779661019791858</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.815346194106681</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.399999988124685</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.496178702566394</c:v>
+                  <c:v>4.534238120647323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.422187981002383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.25764189996445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.518518491150993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.409171101741896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,14 +870,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trade, transportation, and utilities</c:v>
+                  <c:v>Education and health services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8DD3C7"/>
+              <a:srgbClr val="F65B68"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -923,19 +914,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>15.20666254067437</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.71648690112345</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.18839676964505</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.73333331397318</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.01998824853935</c:v>
+                  <c:v>26.66563847142596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.27118643766225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.80910794510583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.88148147775237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.32333921000429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,14 +941,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unclassified</c:v>
+                  <c:v>Construction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFFFB3"/>
+              <a:srgbClr val="EBCECB"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -994,10 +985,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.06169034616749396</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.487970384722349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.16178736458466</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.208983112239966</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.385185227670617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.732510289935476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,7 +1042,6 @@
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1114,15 +1113,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1436,19 +1435,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1497,154 +1484,154 @@
         <v>2018</v>
       </c>
       <c r="B2" s="1">
+        <v>0.06169034616749396</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15.20666254067437</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7.06354103964043</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.179518811889197</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.192473778823115</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.974090064250615</v>
+      </c>
+      <c r="H2" s="1">
+        <v>13.88032077749182</v>
+      </c>
+      <c r="I2" s="1">
+        <v>18.33744600493086</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.4164096593364758</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4.534238120647323</v>
+      </c>
+      <c r="L2" s="1">
+        <v>26.66563847142596</v>
+      </c>
+      <c r="M2" s="1">
         <v>4.487970384722349</v>
-      </c>
-      <c r="C2" s="1">
-        <v>26.66563847142596</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4.534238120647323</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.4164096593364758</v>
-      </c>
-      <c r="F2" s="1">
-        <v>18.33744600493086</v>
-      </c>
-      <c r="G2" s="1">
-        <v>13.88032077749182</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.974090064250615</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3.192473778823115</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4.179518811889197</v>
-      </c>
-      <c r="K2" s="1">
-        <v>7.06354103964043</v>
-      </c>
-      <c r="L2" s="1">
-        <v>15.20666254067437</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.06169034616749396</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>2019</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
+        <v>15.71648690112345</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.779661019791858</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.636363633280573</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.312788905628963</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.802773497481801</v>
+      </c>
+      <c r="H3" s="1">
+        <v>13.72881355774608</v>
+      </c>
+      <c r="I3" s="1">
+        <v>18.87519260183945</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.2927580998585355</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4.422187981002383</v>
+      </c>
+      <c r="L3" s="1">
+        <v>26.27118643766225</v>
+      </c>
+      <c r="M3" s="1">
         <v>5.16178736458466</v>
-      </c>
-      <c r="C3" s="1">
-        <v>26.27118643766225</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4.422187981002383</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.2927580998585355</v>
-      </c>
-      <c r="F3" s="1">
-        <v>18.87519260183945</v>
-      </c>
-      <c r="G3" s="1">
-        <v>13.72881355774608</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.802773497481801</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3.312788905628963</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3.636363633280573</v>
-      </c>
-      <c r="K3" s="1">
-        <v>6.779661019791858</v>
-      </c>
-      <c r="L3" s="1">
-        <v>15.71648690112345</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>2020</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
+        <v>16.18839676964505</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.815346194106681</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.509045506417748</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.838427949976299</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.699937618392397</v>
+      </c>
+      <c r="H4" s="1">
+        <v>14.83156582652451</v>
+      </c>
+      <c r="I4" s="1">
+        <v>17.54522773399142</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.2963194436356563</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4.25764189996445</v>
+      </c>
+      <c r="L4" s="1">
+        <v>26.80910794510583</v>
+      </c>
+      <c r="M4" s="1">
         <v>5.208983112239966</v>
-      </c>
-      <c r="C4" s="1">
-        <v>26.80910794510583</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4.25764189996445</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.2963194436356563</v>
-      </c>
-      <c r="F4" s="1">
-        <v>17.54522773399142</v>
-      </c>
-      <c r="G4" s="1">
-        <v>14.83156582652451</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.699937618392397</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.838427949976299</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3.509045506417748</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6.815346194106681</v>
-      </c>
-      <c r="L4" s="1">
-        <v>16.18839676964505</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>2021</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
+        <v>15.73333331397318</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.399999988124685</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.562962979807414</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.622222218995526</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.466666664861897</v>
+      </c>
+      <c r="H5" s="1">
+        <v>14.94814812975417</v>
+      </c>
+      <c r="I5" s="1">
+        <v>19.12592590239112</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.355555605518038</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.518518491150993</v>
+      </c>
+      <c r="L5" s="1">
+        <v>25.88148147775237</v>
+      </c>
+      <c r="M5" s="1">
         <v>4.385185227670617</v>
-      </c>
-      <c r="C5" s="1">
-        <v>25.88148147775237</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4.518518491150993</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.355555605518038</v>
-      </c>
-      <c r="F5" s="1">
-        <v>19.12592590239112</v>
-      </c>
-      <c r="G5" s="1">
-        <v>14.94814812975417</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.466666664861897</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.622222218995526</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4.562962979807414</v>
-      </c>
-      <c r="K5" s="1">
-        <v>6.399999988124685</v>
-      </c>
-      <c r="L5" s="1">
-        <v>15.73333331397318</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1652,40 +1639,40 @@
         <v>2022</v>
       </c>
       <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16.01998824853935</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.496178702566394</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.011757791515516</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.601410901027719</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.293356849423356</v>
+      </c>
+      <c r="H6" s="1">
+        <v>13.47736626046843</v>
+      </c>
+      <c r="I6" s="1">
+        <v>19.95884774451049</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.6760729002670908</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4.409171101741896</v>
+      </c>
+      <c r="L6" s="1">
+        <v>25.32333921000429</v>
+      </c>
+      <c r="M6" s="1">
         <v>4.732510289935476</v>
-      </c>
-      <c r="C6" s="1">
-        <v>25.32333921000429</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4.409171101741896</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.6760729002670908</v>
-      </c>
-      <c r="F6" s="1">
-        <v>19.95884774451049</v>
-      </c>
-      <c r="G6" s="1">
-        <v>13.47736626046843</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.293356849423356</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.601410901027719</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5.011757791515516</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6.496178702566394</v>
-      </c>
-      <c r="L6" s="1">
-        <v>16.01998824853935</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
